--- a/input/Financial Statement GPS/Income Statements All-GPS.xlsx
+++ b/input/Financial Statement GPS/Income Statements All-GPS.xlsx
@@ -7,27 +7,31 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Year Ended 2017" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Q2 2018 (2017)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Q3 2018 (2017)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Year Ended 2018" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Q1 2019 (2018)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Q2 2019 (2018)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Q3 2019 (2018)" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Year Ended 2019" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Q1 2020 (2019)" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Q2 2020 (2019)" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Q3 2020 (2019)" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Year Ended 2020" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Q1 2021 (2020)" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Q2 2021 (2020)" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Q3 2021 (2020)" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Year Ended 2021" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Q1 2022 (2021)" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Q2 2022 (2021)" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Q3 2022 (2021)" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Year Ended 2022" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Q1 2023 (2022)" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Year Ended 2016" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Q1 2017 (2016)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Q2 2017 (2016)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Q3 2017 (2016)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Year Ended 2017" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Q1 2018 (2017)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Q2 2018 (2017)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Q3 2018 (2017)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Year Ended 2018" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Q1 2019 (2018)" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Q2 2019 (2018)" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Q3 2019 (2018)" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Year Ended 2019" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Q1 2020 (2019)" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Q2 2020 (2019)" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Q3 2020 (2019)" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Year Ended 2020" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Q1 2021 (2020)" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Q2 2021 (2020)" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Q3 2021 (2020)" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Year Ended 2021" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Q1 2022 (2021)" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Q2 2022 (2021)" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Q3 2022 (2021)" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Year Ended 2022" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,7 +465,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Jan. 28, 2017</t>
+          <t>Jan. 30, 2016</t>
         </is>
       </c>
     </row>
@@ -472,7 +476,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15516</v>
+        <v>15797</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +486,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9876</v>
+        <v>10077</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +496,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5640</v>
+        <v>5720</v>
       </c>
     </row>
     <row r="5">
@@ -502,7 +506,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4449</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +516,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1191</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="7">
@@ -522,7 +526,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -532,7 +536,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="9">
@@ -542,7 +546,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1124</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="10">
@@ -552,7 +556,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>448</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11">
@@ -562,7 +566,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>676</v>
+        <v>920</v>
       </c>
     </row>
     <row r="12">
@@ -572,7 +576,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13">
@@ -582,7 +586,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14">
@@ -592,7 +596,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.69</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="15">
@@ -602,7 +606,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.69</v>
+        <v>2.23</v>
       </c>
     </row>
   </sheetData>
@@ -632,18 +636,18 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Aug. 03, 2019</t>
+          <t>May 05, 2018</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Net Sales</t>
+          <t>Net sales</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4005</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="3">
@@ -653,7 +657,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2449</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="4">
@@ -663,7 +667,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1556</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="5">
@@ -673,7 +677,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="6">
@@ -683,7 +687,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>282</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7">
@@ -693,7 +697,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -703,7 +707,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="9">
@@ -713,7 +717,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>271</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10">
@@ -723,7 +727,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>103</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -733,7 +737,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
@@ -743,7 +747,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13">
@@ -753,7 +757,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>379</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14">
@@ -763,7 +767,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="15">
@@ -773,7 +777,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="16">
@@ -813,7 +817,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Nov. 02, 2019</t>
+          <t>Aug. 04, 2018</t>
         </is>
       </c>
     </row>
@@ -824,7 +828,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3998</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="3">
@@ -834,7 +838,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2439</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +848,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1559</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="5">
@@ -854,7 +858,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1338</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="6">
@@ -864,7 +868,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>221</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7">
@@ -874,7 +878,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -894,7 +898,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>209</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10">
@@ -904,7 +908,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -914,7 +918,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>140</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12">
@@ -924,7 +928,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13">
@@ -934,7 +938,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14">
@@ -944,7 +948,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.37</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="15">
@@ -954,7 +958,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.37</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="16">
@@ -994,18 +998,18 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Feb. 01, 2020</t>
+          <t>Nov. 03, 2018</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Revenues</t>
+          <t>Net Sales</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16383</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="3">
@@ -1015,7 +1019,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10250</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="4">
@@ -1025,17 +1029,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6133</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Operating expenses</t>
+          <t>Operating Expenses</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5559</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="6">
@@ -1045,17 +1049,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>574</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Interest expense</t>
+          <t>Interest Expense</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -1065,7 +1069,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-30</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="9">
@@ -1075,7 +1079,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>528</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10">
@@ -1085,7 +1089,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>177</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
@@ -1095,17 +1099,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>351</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Weighted-average number of shares—basic (in shares)</t>
+          <t>Weighted-average number of shares - basic (in shares)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13">
@@ -1115,7 +1119,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14">
@@ -1125,7 +1129,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.93</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -1135,17 +1139,17 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.93</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Common Stock, Dividends, Per Share, Declared</t>
+          <t>Cash dividends declared and paid per share (in dollars per share)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.97</v>
+        <v>0.2425</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,18 +1179,18 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>May 02, 2020</t>
+          <t>Feb. 02, 2019</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Net Sales</t>
+          <t>Revenues</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2107</v>
+        <v>16580</v>
       </c>
     </row>
     <row r="3">
@@ -1196,7 +1200,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1839</v>
+        <v>10258</v>
       </c>
     </row>
     <row r="4">
@@ -1206,37 +1210,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268</v>
+        <v>6322</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Operating Expenses</t>
+          <t>Operating expenses</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1512</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Operating income (loss)</t>
+          <t>Operating income</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1244</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Interest Expense</t>
+          <t>Interest expense</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -1246,17 +1250,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Income (loss) before income taxes</t>
+          <t>Income before income taxes</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1259</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="10">
@@ -1266,27 +1270,27 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Net income (loss)</t>
+          <t>Net income</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-932</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Weighted-average number of shares - basic (in shares)</t>
+          <t>Weighted-average number of shares—basic (in shares)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13">
@@ -1296,27 +1300,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Earnings (loss) per share - basic (in dollars per share)</t>
+          <t>Earnings per share - basic (in dollars per share)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.51</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Earnings (loss) per share - diluted (in dollars per share)</t>
+          <t>Earnings per share - diluted (in dollars per share)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.51</v>
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Common Stock, Dividends, Per Share, Declared</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>
@@ -1346,7 +1360,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Aug. 01, 2020</t>
+          <t>May 04, 2019</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1371,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3275</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="3">
@@ -1367,7 +1381,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2126</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="4">
@@ -1377,7 +1391,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1149</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="5">
@@ -1387,117 +1401,117 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1076</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Operating income (loss)</t>
+          <t>Operating income</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Gain (Loss) on Extinguishment of Debt</t>
+          <t>Interest Expense</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Interest Expense</t>
+          <t>Interest income</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Interest income</t>
+          <t>Income before income taxes</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Income (loss) before income taxes</t>
+          <t>Income taxes</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Income taxes</t>
+          <t>Net income</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Net income (loss)</t>
+          <t>Weighted-average number of shares - basic (in shares)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-62</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Weighted-average number of shares - basic (in shares)</t>
+          <t>Weighted-average number of shares - diluted (in shares)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Weighted-average number of shares - diluted (in shares)</t>
+          <t>Earnings per share - basic (in dollars per share)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Earnings (loss) per share - basic (in dollars per share)</t>
+          <t>Earnings per share - diluted (in dollars per share)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.17</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Earnings (loss) per share - diluted (in dollars per share)</t>
+          <t>Cash dividends declared and paid per share (in dollars per share)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.17</v>
+        <v>0.2425</v>
       </c>
     </row>
   </sheetData>
@@ -1527,7 +1541,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Oct. 31, 2020</t>
+          <t>Aug. 03, 2019</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1552,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3994</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="3">
@@ -1548,7 +1562,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2374</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="4">
@@ -1558,7 +1572,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1620</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="5">
@@ -1568,117 +1582,117 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1445</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Operating income (loss)</t>
+          <t>Operating income</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>175</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Gain (Loss) on Extinguishment of Debt</t>
+          <t>Interest Expense</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Interest Expense</t>
+          <t>Interest income</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Interest income</t>
+          <t>Income before income taxes</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Income (loss) before income taxes</t>
+          <t>Income taxes</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Income taxes</t>
+          <t>Net income</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Net income (loss)</t>
+          <t>Weighted-average number of shares - basic (in shares)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>95</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Weighted-average number of shares - basic (in shares)</t>
+          <t>Weighted-average number of shares - diluted (in shares)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Weighted-average number of shares - diluted (in shares)</t>
+          <t>Earnings per share - basic (in dollars per share)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>380</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Earnings (loss) per share - basic (in dollars per share)</t>
+          <t>Earnings per share - diluted (in dollars per share)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.25</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Earnings (loss) per share - diluted (in dollars per share)</t>
+          <t>Cash dividends declared and paid per share (in dollars per share)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.25</v>
+        <v>0.2425</v>
       </c>
     </row>
   </sheetData>
@@ -1708,18 +1722,18 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Jan. 30, 2021</t>
+          <t>Nov. 02, 2019</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Revenues</t>
+          <t>Net Sales</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13800000000</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="3">
@@ -1729,7 +1743,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9095000000</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="4">
@@ -1739,127 +1753,127 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4705000000</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Operating expenses</t>
+          <t>Operating Expenses</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5567000000</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Operating income (loss)</t>
+          <t>Operating income</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-862000000</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Gain (Loss) on Extinguishment of Debt</t>
+          <t>Interest Expense</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58000000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Interest expense</t>
+          <t>Interest income</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>192000000</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Interest income</t>
+          <t>Income before income taxes</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-10000000</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Income (loss) before income taxes</t>
+          <t>Income taxes</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1102000000</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Income taxes</t>
+          <t>Net income</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-437000000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Net income (loss)</t>
+          <t>Weighted-average number of shares - basic (in shares)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-665000000</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Weighted-average number of shares—basic (in shares)</t>
+          <t>Weighted-average number of shares - diluted (in shares)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Weighted-average number of shares - diluted (in shares)</t>
+          <t>Earnings per share - basic (in dollars per share)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Earnings per share - basic (in dollars per share)</t>
+          <t>Earnings per share - diluted (in dollars per share)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.78</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Earnings per share - diluted (in dollars per share)</t>
+          <t>Cash dividends declared and paid per share (in dollars per share)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.78</v>
+        <v>0.2425</v>
       </c>
     </row>
   </sheetData>
@@ -1868,6 +1882,187 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Feb. 01, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Revenues</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>16383</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cost of goods sold and occupancy expenses</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gross profit</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6133</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5559</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Operating income</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Interest expense</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Interest income</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Income before income taxes</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Income taxes</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Weighted-average number of shares—basic (in shares)</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Weighted-average number of shares - diluted (in shares)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Earnings per share - basic (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Earnings per share - diluted (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Common Stock, Dividends, Per Share, Declared</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1889,7 +2084,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>May 01, 2021</t>
+          <t>May 02, 2020</t>
         </is>
       </c>
     </row>
@@ -1900,7 +2095,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3991</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="3">
@@ -1910,7 +2105,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2361</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="4">
@@ -1920,7 +2115,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1630</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5">
@@ -1930,7 +2125,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1390</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="6">
@@ -1940,7 +2135,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>240</v>
+        <v>-1244</v>
       </c>
     </row>
     <row r="7">
@@ -1950,7 +2145,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -1960,7 +2155,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="9">
@@ -1970,7 +2165,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>187</v>
+        <v>-1259</v>
       </c>
     </row>
     <row r="10">
@@ -1980,7 +2175,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21</v>
+        <v>-327</v>
       </c>
     </row>
     <row r="11">
@@ -1990,7 +2185,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>166</v>
+        <v>-932</v>
       </c>
     </row>
     <row r="12">
@@ -2000,7 +2195,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13">
@@ -2010,7 +2205,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14">
@@ -2020,7 +2215,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.44</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="15">
@@ -2030,188 +2225,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Jul. 31, 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Net Sales</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4211</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cost of goods sold and occupancy expenses</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2388</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Gross profit</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Operating Expenses</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Operating income (loss)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Gain (Loss) on Extinguishment of Debt</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Interest Expense</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Interest income</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Income (loss) before income taxes</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Income taxes</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Net income (loss)</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Weighted-average number of shares - basic (in shares)</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Weighted-average number of shares - diluted (in shares)</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Earnings (loss) per share - basic (in dollars per share)</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Earnings (loss) per share - diluted (in dollars per share)</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.67</v>
+        <v>-2.51</v>
       </c>
     </row>
   </sheetData>
@@ -2241,7 +2255,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Oct. 30, 2021</t>
+          <t>Aug. 01, 2020</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2266,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3943</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="3">
@@ -2262,7 +2276,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2282</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="4">
@@ -2272,7 +2286,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1661</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="5">
@@ -2282,7 +2296,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1508</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="6">
@@ -2292,7 +2306,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -2302,7 +2316,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -2312,7 +2326,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
@@ -2322,7 +2336,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10">
@@ -2332,7 +2346,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-215</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="11">
@@ -2342,7 +2356,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -2352,7 +2366,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-152</v>
+        <v>-62</v>
       </c>
     </row>
     <row r="13">
@@ -2362,7 +2376,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14">
@@ -2372,7 +2386,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15">
@@ -2382,7 +2396,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.4</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="16">
@@ -2392,7 +2406,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.4</v>
+        <v>-0.17</v>
       </c>
     </row>
   </sheetData>
@@ -2422,7 +2436,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Jul. 29, 2017</t>
+          <t>Apr. 30, 2016</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3799</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="3">
@@ -2443,7 +2457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2320</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="4">
@@ -2453,7 +2467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1479</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="5">
@@ -2463,7 +2477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1028</v>
+        <v>987</v>
       </c>
     </row>
     <row r="6">
@@ -2473,7 +2487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>451</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7">
@@ -2483,7 +2497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -2493,7 +2507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
@@ -2503,7 +2517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>439</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10">
@@ -2513,7 +2527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -2523,7 +2537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>271</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
@@ -2533,7 +2547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13">
@@ -2543,7 +2557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14">
@@ -2553,7 +2567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="15">
@@ -2563,7 +2577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.68</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="16">
@@ -2603,18 +2617,18 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Jan. 29, 2022</t>
+          <t>Oct. 31, 2020</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Net sales</t>
+          <t>Net Sales</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16670000000</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="3">
@@ -2624,7 +2638,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10033000000</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="4">
@@ -2634,17 +2648,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6637000000</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Operating expenses</t>
+          <t>Operating Expenses</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5827000000</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="6">
@@ -2654,27 +2668,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>810000000</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Loss on extinguishment of debt</t>
+          <t>Gain (Loss) on Extinguishment of Debt</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Interest expense</t>
+          <t>Interest Expense</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167000000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -2684,7 +2698,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5000000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
@@ -2694,7 +2708,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>323000000</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
@@ -2704,7 +2718,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>67000000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -2714,47 +2728,47 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>256000000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Weighted-average number of shares—basic</t>
+          <t>Weighted-average number of shares - basic (in shares)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Weighted-average number of shares—diluted</t>
+          <t>Weighted-average number of shares - diluted (in shares)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Earnings (loss) per share—basic</t>
+          <t>Earnings (loss) per share - basic (in dollars per share)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.68</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Earnings (loss) per share—diluted</t>
+          <t>Earnings (loss) per share - diluted (in dollars per share)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.67</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -2763,6 +2777,187 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jan. 30, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Revenues</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>13800000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cost of goods sold and occupancy expenses</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9095000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gross profit</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4705000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5567000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Operating income (loss)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-862000000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Gain (Loss) on Extinguishment of Debt</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>58000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Interest expense</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>192000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Interest income</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-10000000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Income (loss) before income taxes</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1102000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Income taxes</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-437000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Net income (loss)</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-665000000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Weighted-average number of shares—basic (in shares)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Weighted-average number of shares - diluted (in shares)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Earnings per share - basic (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-1.78</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Earnings per share - diluted (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-1.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2784,7 +2979,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Apr. 30, 2022</t>
+          <t>May 01, 2021</t>
         </is>
       </c>
     </row>
@@ -2795,7 +2990,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3477</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="3">
@@ -2805,7 +3000,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2381</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="4">
@@ -2815,7 +3010,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1096</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="5">
@@ -2825,7 +3020,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1293</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="6">
@@ -2835,7 +3030,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-197</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7">
@@ -2845,7 +3040,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -2865,7 +3060,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-216</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10">
@@ -2875,7 +3070,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -2885,7 +3080,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
@@ -2895,7 +3090,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13">
@@ -2905,7 +3100,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>370</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14">
@@ -2915,7 +3110,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.44</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="15">
@@ -2925,7 +3120,550 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.44</v>
+        <v>0.43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jul. 31, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Net Sales</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4211</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cost of goods sold and occupancy expenses</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gross profit</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Operating Expenses</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Operating income (loss)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Gain (Loss) on Extinguishment of Debt</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Interest Expense</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Interest income</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Income (loss) before income taxes</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Income taxes</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Net income (loss)</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Weighted-average number of shares - basic (in shares)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Weighted-average number of shares - diluted (in shares)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Earnings (loss) per share - basic (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Earnings (loss) per share - diluted (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Oct. 30, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Net Sales</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cost of goods sold and occupancy expenses</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gross profit</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Operating Expenses</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Operating income (loss)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Gain (Loss) on Extinguishment of Debt</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Interest Expense</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Interest income</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Income (loss) before income taxes</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-215</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Income taxes</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Net income (loss)</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-152</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Weighted-average number of shares - basic (in shares)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Weighted-average number of shares - diluted (in shares)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Earnings (loss) per share - basic (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Earnings (loss) per share - diluted (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jan. 29, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Net sales</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>16670000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cost of goods sold and occupancy expenses</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10033000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gross profit</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6637000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5827000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Operating income (loss)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>810000000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Loss on extinguishment of debt</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>325000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Interest expense</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>167000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Interest income</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-5000000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Income (loss) before income taxes</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>323000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Income taxes</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>67000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Net income (loss)</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>256000000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Weighted-average number of shares—basic</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Weighted-average number of shares—diluted</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Earnings (loss) per share—basic</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Earnings (loss) per share—diluted</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.67</v>
       </c>
     </row>
   </sheetData>
@@ -2955,7 +3693,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Oct. 28, 2017</t>
+          <t>Jul. 30, 2016</t>
         </is>
       </c>
     </row>
@@ -2966,7 +3704,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3838</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="3">
@@ -2976,7 +3714,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2313</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="4">
@@ -2986,7 +3724,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1525</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="5">
@@ -2996,7 +3734,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1147</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="6">
@@ -3006,7 +3744,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>378</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7">
@@ -3026,7 +3764,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9">
@@ -3036,7 +3774,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>364</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10">
@@ -3046,7 +3784,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
@@ -3056,7 +3794,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>229</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
@@ -3066,7 +3804,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13">
@@ -3076,7 +3814,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14">
@@ -3086,7 +3824,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.59</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="15">
@@ -3096,7 +3834,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.58</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="16">
@@ -3115,6 +3853,187 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Oct. 29, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Net sales</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cost of goods sold and occupancy expenses</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gross profit</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Operating income</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Interest expense</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Interest income</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Income before income taxes</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Income taxes</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Weighted-average number of shares - basic (in shares)</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Weighted-average number of shares - diluted (in shares)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Earnings per share - basic (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Earnings per share - diluted (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Cash dividends declared and paid per share (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3136,7 +4055,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Feb. 03, 2018</t>
+          <t>Jan. 28, 2017</t>
         </is>
       </c>
     </row>
@@ -3147,7 +4066,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15855</v>
+        <v>15516</v>
       </c>
     </row>
     <row r="3">
@@ -3157,7 +4076,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9789</v>
+        <v>9876</v>
       </c>
     </row>
     <row r="4">
@@ -3167,7 +4086,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6066</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="5">
@@ -3177,7 +4096,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4587</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="6">
@@ -3187,7 +4106,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1479</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="7">
@@ -3197,7 +4116,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -3207,7 +4126,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-19</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="9">
@@ -3217,7 +4136,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1424</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="10">
@@ -3227,7 +4146,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>576</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11">
@@ -3237,7 +4156,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>848</v>
+        <v>676</v>
       </c>
     </row>
     <row r="12">
@@ -3247,7 +4166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13">
@@ -3257,7 +4176,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14">
@@ -3267,7 +4186,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.16</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="15">
@@ -3277,188 +4196,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>May 05, 2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Net sales</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3783</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cost of goods sold and occupancy expenses</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2356</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Gross profit</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Operating Expenses</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Operating income</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Interest Expense</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Interest income</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Income before income taxes</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Income taxes</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Net income</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Weighted-average number of shares - basic (in shares)</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Weighted-average number of shares - diluted (in shares)</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Earnings per share - basic (in dollars per share)</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Earnings per share - diluted (in dollars per share)</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Cash dividends declared and paid per share (in dollars per share)</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.2425</v>
+        <v>1.69</v>
       </c>
     </row>
   </sheetData>
@@ -3488,18 +4226,18 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Aug. 04, 2018</t>
+          <t>Apr. 29, 2017</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Net Sales</t>
+          <t>Net sales</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4085</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="3">
@@ -3509,7 +4247,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2458</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="4">
@@ -3519,17 +4257,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1627</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Operating Expenses</t>
+          <t>Operating expenses</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1229</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="6">
@@ -3539,17 +4277,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>398</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Interest Expense</t>
+          <t>Interest expense</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -3559,7 +4297,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="9">
@@ -3569,7 +4307,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>388</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10">
@@ -3579,7 +4317,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
@@ -3589,7 +4327,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>297</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
@@ -3599,7 +4337,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13">
@@ -3609,7 +4347,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14">
@@ -3619,7 +4357,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.77</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="15">
@@ -3629,7 +4367,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.76</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="16">
@@ -3639,7 +4377,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2425</v>
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -3669,18 +4407,18 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Nov. 03, 2018</t>
+          <t>Jul. 29, 2017</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Net Sales</t>
+          <t>Net sales</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4089</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="3">
@@ -3690,7 +4428,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2466</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="4">
@@ -3700,17 +4438,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1623</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Operating Expenses</t>
+          <t>Operating expenses</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1260</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="6">
@@ -3720,17 +4458,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>363</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Interest Expense</t>
+          <t>Interest expense</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -3740,7 +4478,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="9">
@@ -3750,7 +4488,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>350</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10">
@@ -3760,7 +4498,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>84</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
@@ -3770,7 +4508,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12">
@@ -3780,7 +4518,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>384</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13">
@@ -3790,7 +4528,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14">
@@ -3810,7 +4548,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="16">
@@ -3820,7 +4558,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2425</v>
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -3850,18 +4588,18 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Feb. 02, 2019</t>
+          <t>Oct. 28, 2017</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Revenues</t>
+          <t>Net sales</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16580</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="3">
@@ -3871,7 +4609,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10258</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="4">
@@ -3881,7 +4619,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6322</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="5">
@@ -3891,7 +4629,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4960</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="6">
@@ -3901,7 +4639,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1362</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7">
@@ -3911,7 +4649,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -3921,7 +4659,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-33</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="9">
@@ -3931,7 +4669,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1322</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10">
@@ -3941,7 +4679,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>319</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
@@ -3951,17 +4689,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1003</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Weighted-average number of shares—basic (in shares)</t>
+          <t>Weighted-average number of shares - basic (in shares)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13">
@@ -3971,7 +4709,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14">
@@ -3981,7 +4719,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.61</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="15">
@@ -3991,17 +4729,17 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.59</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Common Stock, Dividends, Per Share, Declared</t>
+          <t>Cash dividends declared and paid per share (in dollars per share)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.97</v>
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -4015,7 +4753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4031,18 +4769,18 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>May 04, 2019</t>
+          <t>Feb. 03, 2018</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Net Sales</t>
+          <t>Net sales</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3706</v>
+        <v>15855</v>
       </c>
     </row>
     <row r="3">
@@ -4052,7 +4790,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2362</v>
+        <v>9789</v>
       </c>
     </row>
     <row r="4">
@@ -4062,17 +4800,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1344</v>
+        <v>6066</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Operating Expenses</t>
+          <t>Operating expenses</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1028</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="6">
@@ -4082,17 +4820,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>316</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Interest Expense</t>
+          <t>Interest expense</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -4102,7 +4840,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="9">
@@ -4112,7 +4850,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>302</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="10">
@@ -4122,7 +4860,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11">
@@ -4132,17 +4870,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>227</v>
+        <v>848</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Weighted-average number of shares - basic (in shares)</t>
+          <t>Weighted-average number of shares—basic (in shares)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>379</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13">
@@ -4152,7 +4890,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>381</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14">
@@ -4162,7 +4900,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="15">
@@ -4172,17 +4910,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Cash dividends declared and paid per share (in dollars per share)</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.2425</v>
+        <v>2.14</v>
       </c>
     </row>
   </sheetData>
